--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6217,4 +6218,2718 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.3881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.4589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7419</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5770</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3720</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8101</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8093</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7598</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5054</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8932,4 +8933,2830 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7983</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.4498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6076</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6353</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2494</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1965</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9894</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4322</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3590</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1273</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1100</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0937</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0838</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0328</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7964</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7814</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11759,4 +11760,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11768,7 +11769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11779,17 +11780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11799,14 +11820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.04000000000001</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>200.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11815,14 +11858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>81.58</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -11831,14 +11896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>61.3</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11847,13 +11934,2353 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8867</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3505</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2518</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0465</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0288</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8298</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5446</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>89</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14179,7 +14180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14190,17 +14191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14210,14 +14231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>68.47</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -14226,14 +14269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85.04000000000001</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14242,14 +14307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81.58</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -14258,14 +14345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61.3</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -14274,13 +14383,3241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7858</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3406</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0606</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0586</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9222</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7457</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5452</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>54.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17500,7 +17501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17511,17 +17512,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17531,14 +17552,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.59</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -17547,14 +17590,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>68.47</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -17563,14 +17628,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85.04000000000001</v>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>118.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -17579,14 +17666,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>81.58</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -17595,14 +17704,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>61.3</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -17611,13 +17742,4427 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6517</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5443</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4917</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4830</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8709</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8506</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8476</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6581</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5865</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5158</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4830</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010170</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010171</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银证券鑫瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>89</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600760-中航沈飞.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>75.63</v>
+        <v>87.45999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>59.59</v>
+        <v>75.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
-        <v>68.47</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>85.04000000000001</v>
+        <v>68.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>81.58</v>
+        <v>85.04000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>61.3</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>89</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>54.43</v>
       </c>
     </row>
@@ -600,6 +617,6924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>210.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2837</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6954</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5892</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5547</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1602</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1435</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1404</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0212</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9583</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8657</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7544</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5995</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4601</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3869</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012041</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013035</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015046</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011803</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>36.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011804</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013368</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013367</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇添富多元价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>015114</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>015599</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>016209</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5127,7 +12062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8447,7 +15382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10857,7 +17792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13683,7 +20618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16397,7 +23332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18733,7 +25668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
